--- a/02.crawler/03.eBay/2.Search/2.menu.xlsx
+++ b/02.crawler/03.eBay/2.Search/2.menu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -479,14 +479,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>192511998212</t>
+          <t>196453166543</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -494,7 +494,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -502,14 +502,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>195660971887</t>
+          <t>196371826786</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -517,7 +517,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -525,14 +525,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>192557565418</t>
+          <t>195732582407</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -548,14 +548,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>192335808616</t>
+          <t>196371848729</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -563,7 +563,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -571,14 +571,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>192470815384</t>
+          <t>196466362296</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -594,14 +594,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>192470816410</t>
+          <t>196062726378</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>195656999183</t>
+          <t>196078121913</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -632,7 +632,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -640,14 +640,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>192399272603</t>
+          <t>196495781333</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -663,14 +663,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>192469913773</t>
+          <t>196464148588</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -686,14 +686,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>196084651183</t>
+          <t>196464303327</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -709,14 +709,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>196084651217</t>
+          <t>195137934200</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -732,14 +732,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>193432073359</t>
+          <t>196359973067</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,14 +755,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>193432073395</t>
+          <t>195380959780</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -770,7 +770,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -778,14 +778,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>193432073431</t>
+          <t>196194211782</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -793,7 +793,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -801,14 +801,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>193432073468</t>
+          <t>196464246012</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -816,7 +816,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -824,14 +824,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>192461026915</t>
+          <t>195383095925</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -847,14 +847,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>192461027622</t>
+          <t>194426623727</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -862,7 +862,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -870,14 +870,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>192461035908</t>
+          <t>196466365404</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -893,14 +893,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>192461036905</t>
+          <t>196462242735</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -916,14 +916,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>192461038502</t>
+          <t>195949100320</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -939,14 +939,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>192461038654</t>
+          <t>195915469953</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -962,14 +962,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>192461039242</t>
+          <t>196462374940</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -977,7 +977,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -985,14 +985,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>192461039631</t>
+          <t>196374779860</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1008,14 +1008,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>192461040906</t>
+          <t>196381303472</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1031,14 +1031,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>195669367960</t>
+          <t>196381252425</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>195669368019</t>
+          <t>196316033428</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1077,14 +1077,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>195669368087</t>
+          <t>195913928111</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1100,14 +1100,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>195669368150</t>
+          <t>196462352364</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1123,14 +1123,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>195669368239</t>
+          <t>195528298500</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1146,14 +1146,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>195669368319</t>
+          <t>196142642052</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1169,14 +1169,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>192560112952</t>
+          <t>195516855896</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1192,14 +1192,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>192560113777</t>
+          <t>195497141144</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1215,14 +1215,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>192516260600</t>
+          <t>192771878715</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1238,14 +1238,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>192516260816</t>
+          <t>195515452650</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1261,14 +1261,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>193432059946</t>
+          <t>195422060988</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1284,14 +1284,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>195928542832</t>
+          <t>195721266744</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>195928542862</t>
+          <t>196368062603</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1330,14 +1330,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>195928542927</t>
+          <t>195447588508</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1353,14 +1353,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>195928543010</t>
+          <t>196062704334</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1376,14 +1376,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>194938756574</t>
+          <t>195928531204</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1399,14 +1399,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>194938756689</t>
+          <t>196495652358</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1422,14 +1422,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>194938756808</t>
+          <t>196495713100</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>194938757135</t>
+          <t>192771844290</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1468,14 +1468,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>194938757506</t>
+          <t>195903407223</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1491,14 +1491,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>194938757744</t>
+          <t>195518200266</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1514,14 +1514,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>194938757980</t>
+          <t>195385582961</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1537,14 +1537,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>194990689095</t>
+          <t>193004040764</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1560,14 +1560,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>193803512984</t>
+          <t>195529563416</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1583,14 +1583,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>193175262897</t>
+          <t>195251171626</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1606,14 +1606,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>193175262951</t>
+          <t>192737742281</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1629,14 +1629,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>193175263006</t>
+          <t>195928565222</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1652,14 +1652,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>196293105734</t>
+          <t>195233130726</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1675,14 +1675,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>196293105829</t>
+          <t>195917034181</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1698,14 +1698,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>196293105878</t>
+          <t>195732557380</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1721,14 +1721,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>194506476869</t>
+          <t>196194225686</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1744,14 +1744,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>194506476914</t>
+          <t>195364027557</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1767,14 +1767,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>194506476965</t>
+          <t>196194208851</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1790,14 +1790,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>194506477013</t>
+          <t>195138229431</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1813,14 +1813,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>194506477094</t>
+          <t>195732515460</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1836,14 +1836,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>194506477179</t>
+          <t>195529209924</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1859,14 +1859,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>194506477273</t>
+          <t>195241633380</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1882,14 +1882,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>193899806121</t>
+          <t>195751900989</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1905,14 +1905,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>193289285759</t>
+          <t>196339545957</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>193289285781</t>
+          <t>195720928755</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1951,14 +1951,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>193289285819</t>
+          <t>195744491183</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1974,14 +1974,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>193875361472</t>
+          <t>196497159761</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1997,14 +1997,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>192356096699</t>
+          <t>195516900191</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2020,14 +2020,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>195912288101</t>
+          <t>196351326250</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2043,14 +2043,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>195912288288</t>
+          <t>193260163435</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2066,14 +2066,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>195912288375</t>
+          <t>195622130982</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2089,14 +2089,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>195912288677</t>
+          <t>195241761066</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2112,14 +2112,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>195912288963</t>
+          <t>195734372906</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2135,14 +2135,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>195912289040</t>
+          <t>196142569911</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2158,14 +2158,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>195912289215</t>
+          <t>192731409825</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2181,14 +2181,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>195912289306</t>
+          <t>196167464726</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2204,14 +2204,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>195912289364</t>
+          <t>192760838653</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2227,14 +2227,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>195912289439</t>
+          <t>193635490437</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2250,14 +2250,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>195912289598</t>
+          <t>195532751936</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2273,14 +2273,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>195912289867</t>
+          <t>195492056482</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2296,14 +2296,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>195912290331</t>
+          <t>195732577217</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2319,14 +2319,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>195912290405</t>
+          <t>195438601020</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2342,14 +2342,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>195912290480</t>
+          <t>195913856480</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2365,14 +2365,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>192399335201</t>
+          <t>195698103614</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2388,14 +2388,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>192740490988</t>
+          <t>196497166909</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2411,14 +2411,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>192740491080</t>
+          <t>195383114101</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2434,14 +2434,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>192740491172</t>
+          <t>195851405196</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2457,14 +2457,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>193782164168</t>
+          <t>193221425895</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2480,14 +2480,14 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>193782164556</t>
+          <t>193619326671</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2503,14 +2503,14 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>193782164751</t>
+          <t>192741438507</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2526,14 +2526,14 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>193782165056</t>
+          <t>196495672638</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2549,14 +2549,14 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>193782165292</t>
+          <t>193033941698</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2572,14 +2572,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>193782165565</t>
+          <t>195411423385</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2595,14 +2595,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>193782165830</t>
+          <t>192731591032</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2618,14 +2618,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>193782166134</t>
+          <t>193208594834</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2641,14 +2641,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>193782166391</t>
+          <t>195998228681</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2664,14 +2664,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>193782167018</t>
+          <t>196018529010</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2687,14 +2687,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>193782168566</t>
+          <t>195969756713</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2710,14 +2710,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>193782169076</t>
+          <t>195124720874</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2733,14 +2733,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>193782169341</t>
+          <t>193260151083</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2756,14 +2756,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>196207288455</t>
+          <t>195364158079</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>196207288503</t>
+          <t>195237731135</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2802,14 +2802,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>196207288608</t>
+          <t>195170722070</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2825,14 +2825,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>196207288706</t>
+          <t>196497169240</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2848,14 +2848,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>194027540816</t>
+          <t>195915635770</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2871,14 +2871,14 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>194027542005</t>
+          <t>195501307601</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2894,14 +2894,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>194027543218</t>
+          <t>195930040694</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2917,14 +2917,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>194027544486</t>
+          <t>192748154288</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2940,14 +2940,14 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>194027545733</t>
+          <t>195366362145</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2963,14 +2963,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>194027546975</t>
+          <t>193635490288</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2986,14 +2986,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>194027547754</t>
+          <t>195998454148</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3009,14 +3009,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>192216977957</t>
+          <t>193230599218</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3032,14 +3032,14 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>193559447514</t>
+          <t>192741461408</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3055,14 +3055,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>192454006299</t>
+          <t>195915504269</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3078,14 +3078,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>192454006497</t>
+          <t>195915522414</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3101,14 +3101,14 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>192454006812</t>
+          <t>195408726748</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3124,14 +3124,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>192454006918</t>
+          <t>195421012518</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -3147,14 +3147,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>192454007312</t>
+          <t>195816627034</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>192454007494</t>
+          <t>192739143374</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -3193,14 +3193,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>192900365447</t>
+          <t>195438521829</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -3216,14 +3216,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>192616758377</t>
+          <t>195379803976</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3239,14 +3239,14 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>192453239714</t>
+          <t>195257659195</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3262,14 +3262,14 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>192453241265</t>
+          <t>196018975715</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -3285,14 +3285,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>192453241970</t>
+          <t>195928434481</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -3308,14 +3308,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>192501585534</t>
+          <t>195250856838</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -3331,14 +3331,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>193178089552</t>
+          <t>195602524088</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3354,14 +3354,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>193178089609</t>
+          <t>195470991147</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3377,14 +3377,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>193178089724</t>
+          <t>195138132367</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3400,14 +3400,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>193178089836</t>
+          <t>195422011948</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>193178089958</t>
+          <t>195720975297</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3446,14 +3446,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>193178089998</t>
+          <t>193397538825</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3469,14 +3469,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>193178090004</t>
+          <t>196239762399</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3492,14 +3492,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>193178090028</t>
+          <t>195563737999</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3515,14 +3515,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>193178090055</t>
+          <t>195990088344</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3538,14 +3538,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>195367098865</t>
+          <t>195998268880</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3561,14 +3561,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>195367098946</t>
+          <t>195734230256</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3584,14 +3584,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>195367099020</t>
+          <t>195790924429</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3607,14 +3607,14 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>194017993061</t>
+          <t>196339562397</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3630,14 +3630,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>194017993148</t>
+          <t>195990063754</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3653,14 +3653,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>194017993229</t>
+          <t>196001340626</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3676,14 +3676,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>194017993349</t>
+          <t>195536732211</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3699,14 +3699,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>194017993416</t>
+          <t>193033941984</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3722,14 +3722,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>194017993493</t>
+          <t>196142641122</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3745,14 +3745,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>194017993568</t>
+          <t>195155054177</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3768,14 +3768,14 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>194017993691</t>
+          <t>195306031849</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>194017993742</t>
+          <t>196264815716</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3814,14 +3814,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>192106546901</t>
+          <t>195832624331</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3837,14 +3837,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>192557551481</t>
+          <t>195489248479</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>192557552259</t>
+          <t>195154476214</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3883,14 +3883,14 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>196114728215</t>
+          <t>192732835083</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3906,14 +3906,14 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>196114728255</t>
+          <t>195519827574</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3929,14 +3929,14 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>196114728324</t>
+          <t>195720962758</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3952,14 +3952,14 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>196114728362</t>
+          <t>195365359293</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3975,14 +3975,14 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>196114728393</t>
+          <t>192732802929</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3998,14 +3998,14 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>196114728431</t>
+          <t>195382008450</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -4021,14 +4021,14 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>196114728478</t>
+          <t>195202778469</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -4044,14 +4044,14 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>192454736877</t>
+          <t>193207791977</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>192454738271</t>
+          <t>195528239075</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -4090,14 +4090,14 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>192454738710</t>
+          <t>195438584453</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -4113,14 +4113,14 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>192454738831</t>
+          <t>195744495050</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -4136,14 +4136,14 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>194506449650</t>
+          <t>193033941649</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -4159,14 +4159,14 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>194506449764</t>
+          <t>196018475137</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -4182,14 +4182,14 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>194506449838</t>
+          <t>195421067528</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -4205,14 +4205,14 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>192492586976</t>
+          <t>196142562476</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -4228,14 +4228,14 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>192492587587</t>
+          <t>195613417454</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -4251,14 +4251,14 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>192492591777</t>
+          <t>195380929459</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -4274,14 +4274,14 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>192492592408</t>
+          <t>195790875933</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -4297,14 +4297,14 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>192492593977</t>
+          <t>195751922837</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -4320,14 +4320,14 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>192492595200</t>
+          <t>195137655102</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -4343,14 +4343,14 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>192492595375</t>
+          <t>193004040765</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4366,14 +4366,14 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>192492595962</t>
+          <t>195529169075</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4389,14 +4389,14 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>192492596893</t>
+          <t>195732583223</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -4412,14 +4412,14 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>192492597895</t>
+          <t>195734265529</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4435,14 +4435,14 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>194505504060</t>
+          <t>195734268658</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -4458,14 +4458,14 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>194505504176</t>
+          <t>195917186234</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -4481,14 +4481,14 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>194505504240</t>
+          <t>192748143763</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -4504,14 +4504,14 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>194505504341</t>
+          <t>196281128415</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -4527,14 +4527,14 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>194505504441</t>
+          <t>195946200626</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4550,14 +4550,14 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>194505504538</t>
+          <t>195990060189</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4573,14 +4573,14 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>194505504686</t>
+          <t>195202855317</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -4596,14 +4596,14 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>194505504812</t>
+          <t>195418220247</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -4619,14 +4619,14 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>194505504894</t>
+          <t>195990081147</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4642,14 +4642,14 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>192515176596</t>
+          <t>192733067957</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -4665,14 +4665,14 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>192725480798</t>
+          <t>192748130463</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -4688,14 +4688,14 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>192725481008</t>
+          <t>195195496500</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4711,14 +4711,14 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>192725481179</t>
+          <t>196018510190</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -4734,14 +4734,14 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>192725481422</t>
+          <t>195720976290</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4757,14 +4757,14 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>192725481766</t>
+          <t>193260158603</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4780,14 +4780,14 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>192725482165</t>
+          <t>195484209887</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4803,14 +4803,14 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>192725483012</t>
+          <t>195732523424</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>192725483666</t>
+          <t>195732581145</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4849,14 +4849,14 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>192725483910</t>
+          <t>192739139272</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4872,14 +4872,14 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>192725484422</t>
+          <t>192741334713</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -4895,14 +4895,14 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>192725484831</t>
+          <t>192750342769</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -4918,14 +4918,14 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>192725485257</t>
+          <t>193619288716</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -4941,14 +4941,14 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>192725485567</t>
+          <t>195732693204</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4964,14 +4964,14 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>192725486362</t>
+          <t>195734271789</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4987,14 +4987,14 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>194419255942</t>
+          <t>195154526156</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -5010,14 +5010,14 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>194419256713</t>
+          <t>195419970375</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -5033,14 +5033,14 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>194419257857</t>
+          <t>195720936855</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -5056,14 +5056,14 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>194419258256</t>
+          <t>193635490464</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -5079,14 +5079,14 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>194419258611</t>
+          <t>192741303721</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -5102,14 +5102,14 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>194419259177</t>
+          <t>193004040758</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -5125,14 +5125,14 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>194419259532</t>
+          <t>195363782126</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -5148,14 +5148,14 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>194419260053</t>
+          <t>195421061945</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -5171,14 +5171,14 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>194419260538</t>
+          <t>196374623326</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -5194,14 +5194,14 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>194419260889</t>
+          <t>195744604559</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -5217,14 +5217,14 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>194419261375</t>
+          <t>195124913591</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -5240,14 +5240,14 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>194419262359</t>
+          <t>196405055498</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -5263,14 +5263,14 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>194419263067</t>
+          <t>195367152237</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -5286,14 +5286,14 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>194419263784</t>
+          <t>193635490290</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -5309,14 +5309,14 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>194419264289</t>
+          <t>193635490294</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -5332,14 +5332,14 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>194419264730</t>
+          <t>195861505658</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -5355,14 +5355,14 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>194419265091</t>
+          <t>195331073408</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -5378,14 +5378,14 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>194419265396</t>
+          <t>195137897233</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -5401,14 +5401,14 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>194419265691</t>
+          <t>195381756865</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -5424,14 +5424,14 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>194419266342</t>
+          <t>196194196837</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -5447,14 +5447,14 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>194419266897</t>
+          <t>195734235002</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -5470,14 +5470,14 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>194419267556</t>
+          <t>195616941468</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -5493,14 +5493,14 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>194419268205</t>
+          <t>195732519076</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -5516,14 +5516,14 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>194419268773</t>
+          <t>195832638257</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -5539,14 +5539,14 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>194419269287</t>
+          <t>193615582175</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -5562,14 +5562,14 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>194419270265</t>
+          <t>195413089518</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -5585,14 +5585,14 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>194419270938</t>
+          <t>195720927975</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -5608,14 +5608,14 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>194419271508</t>
+          <t>192771890462</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -5631,14 +5631,14 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>194419272151</t>
+          <t>195734258096</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -5654,14 +5654,14 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>194419272758</t>
+          <t>195917114447</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -5677,14 +5677,14 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>194419273269</t>
+          <t>195421799951</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -5700,14 +5700,14 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>194419273831</t>
+          <t>192741298665</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -5723,14 +5723,14 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>194419274514</t>
+          <t>192748064642</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -5746,14 +5746,14 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>194419275210</t>
+          <t>195465354348</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -5769,14 +5769,14 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>194419275750</t>
+          <t>193260180279</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>194419276355</t>
+          <t>195419926159</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -5815,14 +5815,14 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>194419276889</t>
+          <t>195364239669</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -5838,14 +5838,14 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>194419277762</t>
+          <t>195237499606</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -5861,14 +5861,14 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>194419278518</t>
+          <t>192739120424</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -5884,14 +5884,14 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>194419279397</t>
+          <t>195154819341</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -5907,14 +5907,14 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>194419280301</t>
+          <t>195744598865</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -5930,14 +5930,14 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>194419281207</t>
+          <t>196001315616</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -5953,14 +5953,14 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>194419281947</t>
+          <t>194432598487</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -5976,14 +5976,14 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>194419282579</t>
+          <t>195412784999</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -5999,14 +5999,14 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>194419283361</t>
+          <t>195421842914</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -6022,14 +6022,14 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>194419284796</t>
+          <t>192733013576</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -6045,14 +6045,14 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>194419285594</t>
+          <t>195998196449</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -6068,14 +6068,14 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>194419286566</t>
+          <t>192786038521</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -6091,14 +6091,14 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>194419287435</t>
+          <t>195408637871</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -6114,14 +6114,14 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>194419288583</t>
+          <t>195732605687</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -6137,14 +6137,14 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>194419289816</t>
+          <t>195721046215</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -6160,14 +6160,14 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>194419291325</t>
+          <t>195421029151</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -6183,14 +6183,14 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>194419292091</t>
+          <t>192741468781</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -6206,14 +6206,14 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>194419293248</t>
+          <t>195811180295</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -6229,2652 +6229,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>194419294231</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>2</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>252</v>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>194419295072</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>2</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D254" t="n">
-        <v>253</v>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>194419296032</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>2</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D255" t="n">
-        <v>254</v>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>194419296752</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>2</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D256" t="n">
-        <v>255</v>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>194419297436</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>2</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D257" t="n">
-        <v>256</v>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>194419298124</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>2</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D258" t="n">
-        <v>257</v>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>194419298777</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>2</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D259" t="n">
-        <v>258</v>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>194419299615</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>2</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>259</v>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>194419300402</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>2</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D261" t="n">
-        <v>260</v>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>194419301480</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>2</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D262" t="n">
-        <v>261</v>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>194419302506</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>2</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>262</v>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>194419303894</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>2</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>263</v>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>194419305047</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>2</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>264</v>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>194419305484</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>2</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>265</v>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>194419305914</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>2</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>266</v>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>194419306252</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>2</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>267</v>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>194419306662</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>2</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>268</v>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>194419306997</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>2</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>269</v>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>194419307283</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>2</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>270</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>194419307818</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>2</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>271</v>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>194419308455</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>2</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D273" t="n">
-        <v>272</v>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>194419308997</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>2</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D274" t="n">
-        <v>273</v>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>194419309571</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>2</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D275" t="n">
-        <v>274</v>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>194419310422</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>2</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D276" t="n">
-        <v>275</v>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>194419311325</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>2</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>276</v>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>194419312234</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>2</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>277</v>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>194419312813</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>2</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D279" t="n">
-        <v>278</v>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>194419312991</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>2</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D280" t="n">
-        <v>279</v>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>194419313454</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>2</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D281" t="n">
-        <v>280</v>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>194419314028</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>2</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D282" t="n">
-        <v>281</v>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>194419314342</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>2</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D283" t="n">
-        <v>282</v>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>194419314672</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>2</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D284" t="n">
-        <v>283</v>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>194419315118</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>2</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D285" t="n">
-        <v>284</v>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>194419315595</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>2</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D286" t="n">
-        <v>285</v>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>194419316119</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>2</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>286</v>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>194419316639</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>2</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D288" t="n">
-        <v>287</v>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>194419317357</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>2</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D289" t="n">
-        <v>288</v>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>194419317809</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>2</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>289</v>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>194419318337</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>2</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D291" t="n">
-        <v>290</v>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>194419318969</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>2</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D292" t="n">
-        <v>291</v>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>194419319623</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>2</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D293" t="n">
-        <v>292</v>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>194419320452</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>2</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D294" t="n">
-        <v>293</v>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>194419321177</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>2</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D295" t="n">
-        <v>294</v>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>194419322334</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>2</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>295</v>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>194419323751</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>2</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D297" t="n">
-        <v>296</v>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>194419325208</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>2</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D298" t="n">
-        <v>297</v>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>194419326655</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>2</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D299" t="n">
-        <v>298</v>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>194419327083</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>2</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D300" t="n">
-        <v>299</v>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>194419327940</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>2</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D301" t="n">
-        <v>300</v>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>194419328561</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>2</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D302" t="n">
-        <v>301</v>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>194419329172</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>2</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D303" t="n">
-        <v>302</v>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>194419329999</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>2</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D304" t="n">
-        <v>303</v>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>194419330893</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>2</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D305" t="n">
-        <v>304</v>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>194419331593</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>2</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D306" t="n">
-        <v>305</v>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>194419332107</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>2</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D307" t="n">
-        <v>306</v>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>192478424084</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>2</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D308" t="n">
-        <v>307</v>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>192478424558</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>2</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D309" t="n">
-        <v>308</v>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>192478425170</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>2</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D310" t="n">
-        <v>309</v>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>192478425684</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>2</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D311" t="n">
-        <v>310</v>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>192478426074</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>2</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D312" t="n">
-        <v>311</v>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>192478426824</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>2</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D313" t="n">
-        <v>312</v>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>192478427246</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>2</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D314" t="n">
-        <v>313</v>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>194505612689</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>2</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D315" t="n">
-        <v>314</v>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>192777509938</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>2</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D316" t="n">
-        <v>315</v>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>192777509976</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>2</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D317" t="n">
-        <v>316</v>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>192777510027</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>2</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D318" t="n">
-        <v>317</v>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>192777510079</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>2</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D319" t="n">
-        <v>318</v>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>192777510157</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>2</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D320" t="n">
-        <v>319</v>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>192777510255</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>2</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D321" t="n">
-        <v>320</v>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>192777510679</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>2</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D322" t="n">
-        <v>321</v>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>192777510817</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>2</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D323" t="n">
-        <v>322</v>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>192777510954</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>2</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D324" t="n">
-        <v>323</v>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>192184211248</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>2</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D325" t="n">
-        <v>324</v>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>192946927249</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>2</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D326" t="n">
-        <v>325</v>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>192946927260</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>2</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D327" t="n">
-        <v>326</v>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>194505423090</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>2</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D328" t="n">
-        <v>327</v>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>194505423268</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>2</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D329" t="n">
-        <v>328</v>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>194505423370</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>2</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D330" t="n">
-        <v>329</v>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>192460229557</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>2</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D331" t="n">
-        <v>330</v>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>192460229735</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>2</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D332" t="n">
-        <v>331</v>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>192460229892</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>2</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D333" t="n">
-        <v>332</v>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>192460231103</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>2</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D334" t="n">
-        <v>333</v>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>192460231721</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>2</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D335" t="n">
-        <v>334</v>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>192460232565</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>2</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D336" t="n">
-        <v>335</v>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>192460232862</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>2</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D337" t="n">
-        <v>336</v>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>192460233402</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>2</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D338" t="n">
-        <v>337</v>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>192460234966</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>2</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D339" t="n">
-        <v>338</v>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>192460236012</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>2</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D340" t="n">
-        <v>339</v>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>192460236122</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>2</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D341" t="n">
-        <v>340</v>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>192460236443</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>2</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D342" t="n">
-        <v>341</v>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>192015696634</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>2</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D343" t="n">
-        <v>342</v>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>192683803645</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>2</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>343</v>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>192540786888</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>2</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D345" t="n">
-        <v>344</v>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>194505416045</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>2</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D346" t="n">
-        <v>345</v>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>194505416151</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>2</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D347" t="n">
-        <v>346</v>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>194505416251</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>2</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D348" t="n">
-        <v>347</v>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>194505416394</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>2</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D349" t="n">
-        <v>348</v>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>194505416611</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>2</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D350" t="n">
-        <v>349</v>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>194505416936</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>2</v>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D351" t="n">
-        <v>350</v>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>194505417519</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>2</v>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D352" t="n">
-        <v>351</v>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>194505417773</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>2</v>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D353" t="n">
-        <v>352</v>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>194505417991</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>2</v>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D354" t="n">
-        <v>353</v>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>194505418206</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>2</v>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D355" t="n">
-        <v>354</v>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>194505418352</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>2</v>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D356" t="n">
-        <v>355</v>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>194505418552</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>2</v>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D357" t="n">
-        <v>356</v>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>194505418808</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>2</v>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D358" t="n">
-        <v>357</v>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>194505419097</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>2</v>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D359" t="n">
-        <v>358</v>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>194505419401</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>2</v>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D360" t="n">
-        <v>359</v>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>194505419690</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>2</v>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D361" t="n">
-        <v>360</v>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>194505419836</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>2</v>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D362" t="n">
-        <v>361</v>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>194505420068</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>2</v>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D363" t="n">
-        <v>362</v>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>194505420306</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>2</v>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D364" t="n">
-        <v>363</v>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>194505420468</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>2</v>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D365" t="n">
-        <v>364</v>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>194505420622</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>2</v>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D366" t="n">
-        <v>365</v>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>194505420769</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>2</v>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
-        </is>
-      </c>
-      <c r="D367" t="n">
-        <v>366</v>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>194505420840</t>
+          <t>192737728468</t>
         </is>
       </c>
     </row>
